--- a/example/LusMeg00028_labels.xlsx
+++ b/example/LusMeg00028_labels.xlsx
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.94457</v>
+        <v>0.94453</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9441000000000001</v>
+        <v>0.94385</v>
       </c>
     </row>
   </sheetData>

--- a/example/LusMeg00028_labels.xlsx
+++ b/example/LusMeg00028_labels.xlsx
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.94453</v>
+        <v>0.94459</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.94385</v>
+        <v>0.94411</v>
       </c>
     </row>
   </sheetData>
